--- a/docs/timer/定时器整理 (EQ组).xlsx
+++ b/docs/timer/定时器整理 (EQ组).xlsx
@@ -10,14 +10,14 @@
     <sheet name="定时器" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">定时器!$1:$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">定时器!$1:$13</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>定时器大类</t>
   </si>
@@ -74,12 +74,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>mogoroom</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>-tasktracker</t>
@@ -147,6 +155,30 @@
   </si>
   <si>
     <t>报错原因：程序逻辑问题，需紧急修复，后重新执行一次即可</t>
+  </si>
+  <si>
+    <t>MemSycnTask</t>
+  </si>
+  <si>
+    <t>新旧缓存同步定时器</t>
+  </si>
+  <si>
+    <t>新旧缓存同步定时器。 第一期先对租客app的登录token做同步。</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.MemSycnTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.MemSycnTask"}</t>
+  </si>
+  <si>
+    <t>实时任务</t>
+  </si>
+  <si>
+    <t>按需只执行一次</t>
+  </si>
+  <si>
+    <t>3.2.0.7</t>
   </si>
   <si>
     <t>HelpContentTask</t>
@@ -312,12 +344,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>mogoda</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>-tasktracker</t>
@@ -363,26 +403,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +441,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -423,34 +455,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -462,6 +466,66 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -469,23 +533,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,53 +571,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -561,17 +579,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -596,181 +628,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,15 +930,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -921,20 +944,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,21 +996,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -998,6 +1010,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1006,10 +1038,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1018,133 +1050,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1154,7 +1186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1164,15 +1196,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1182,13 +1208,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1197,26 +1223,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1224,10 +1262,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1237,32 +1272,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="49" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1271,7 +1293,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1280,29 +1302,42 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1317,48 +1352,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1678,7 +1693,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1687,645 +1702,697 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="35.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="9" style="6"/>
+    <col min="7" max="7" width="9" style="4"/>
     <col min="8" max="8" width="8.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9" style="6"/>
+    <col min="9" max="9" width="10.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9" style="4"/>
     <col min="11" max="11" width="73.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="30.875" style="2" customWidth="1"/>
     <col min="13" max="13" width="66" style="2" customWidth="1"/>
     <col min="14" max="14" width="62.25" style="2" customWidth="1"/>
     <col min="15" max="15" width="13" style="2" customWidth="1"/>
-    <col min="16" max="16" width="31.875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="31.875" style="5" customWidth="1"/>
     <col min="17" max="17" width="44.375" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:18">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="1" customFormat="1" ht="27.75" spans="1:18">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="69" t="s">
+      <c r="Q1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="70" t="s">
+      <c r="R1" s="63" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="45" customHeight="1" spans="1:18">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="2" customFormat="1" ht="27" spans="1:18">
+      <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="40" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="63" customHeight="1" spans="1:18">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15" t="s">
+    <row r="3" s="3" customFormat="1" ht="27" spans="1:18">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="44" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="47" t="s">
+      <c r="M3" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="48" t="s">
+      <c r="N3" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="49" t="s">
+      <c r="O3" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="50" t="s">
+      <c r="P3" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="71" t="s">
+      <c r="Q3" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="R3" s="37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:18">
-      <c r="A4" s="14"/>
-      <c r="B4" s="20" t="s">
+    <row r="4" s="3" customFormat="1" ht="27" spans="1:18">
+      <c r="A4" s="12"/>
+      <c r="B4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="22" t="s">
+      <c r="L4" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="51" t="s">
+      <c r="N4" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:18">
+      <c r="A5" s="12"/>
+      <c r="B5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J5" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="21" t="s">
+      <c r="K5" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21" t="s">
-        <v>47</v>
+      <c r="P5" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:18">
-      <c r="A5" s="14"/>
-      <c r="B5" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="51" t="s">
+    <row r="6" s="3" customFormat="1" spans="1:18">
+      <c r="A6" s="12"/>
+      <c r="B6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="J6" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="21" t="s">
+      <c r="K6" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:18">
+      <c r="A7" s="12"/>
+      <c r="B7" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="53" t="s">
+      <c r="F7" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="H7" s="23"/>
+      <c r="I7" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21" t="s">
-        <v>47</v>
+      <c r="P7" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" spans="1:18">
-      <c r="A6" s="14"/>
-      <c r="B6" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="51" t="s">
+    <row r="8" s="3" customFormat="1" ht="14.25" spans="1:18">
+      <c r="A8" s="12"/>
+      <c r="B8" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J8" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="21" t="s">
+      <c r="K8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="N6" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="21" t="s">
+    </row>
+    <row r="9" s="3" customFormat="1" ht="16.5" spans="1:18">
+      <c r="A9" s="12"/>
+      <c r="B9" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21" t="s">
-        <v>47</v>
+      <c r="P9" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="14.25" spans="1:18">
-      <c r="A7" s="14"/>
-      <c r="B7" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="51" t="s">
+    <row r="10" s="3" customFormat="1" ht="16.5" spans="1:18">
+      <c r="A10" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="52" t="s">
+      <c r="J10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="N7" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="O7" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21" t="s">
-        <v>47</v>
+      <c r="K10" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="59"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="16.5" spans="1:18">
-      <c r="A8" s="14"/>
-      <c r="B8" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="51" t="s">
+    <row r="11" s="3" customFormat="1" ht="27" spans="1:18">
+      <c r="A11" s="31"/>
+      <c r="B11" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J11" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="M8" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="N8" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="O8" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21" t="s">
-        <v>47</v>
+      <c r="K11" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="60"/>
+      <c r="O11" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="16.5" spans="1:18">
-      <c r="A9" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="51" t="s">
+    <row r="12" s="2" customFormat="1" ht="27" spans="1:18">
+      <c r="A12" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" s="63"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="P9" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21" t="s">
-        <v>47</v>
+      <c r="K12" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q12" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="27" spans="1:18">
-      <c r="A10" s="34"/>
-      <c r="B10" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="51" t="s">
+    <row r="13" s="2" customFormat="1" ht="27.75" spans="1:18">
+      <c r="A13" s="33"/>
+      <c r="B13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10" s="64"/>
-      <c r="O10" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="P10" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" s="5" customFormat="1" ht="45" customHeight="1" spans="1:18">
-      <c r="A11" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O11" s="42" t="s">
+      <c r="K13" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O13" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="P11" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q11" s="41" t="s">
+      <c r="P13" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" s="5" customFormat="1" ht="45" customHeight="1" spans="1:18">
-      <c r="A12" s="37"/>
-      <c r="B12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="O12" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q12" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="R12" s="41" t="s">
+      <c r="R13" s="37" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XFD8"/>
+  <autoFilter ref="A1:XFD13"/>
   <mergeCells count="3">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/docs/timer/定时器整理 (EQ组).xlsx
+++ b/docs/timer/定时器整理 (EQ组).xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14070" tabRatio="185"/>
+    <workbookView windowWidth="24180" windowHeight="14070" tabRatio="185"/>
   </bookViews>
   <sheets>
     <sheet name="定时器" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">定时器!$1:$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">定时器!$1:$14</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
   <si>
     <t>定时器大类</t>
   </si>
@@ -133,6 +133,33 @@
     <t>3.2.0</t>
   </si>
   <si>
+    <t>CalculateLandlordActiveScoreTask</t>
+  </si>
+  <si>
+    <t>计算房东活跃分定时器</t>
+  </si>
+  <si>
+    <t>未上线</t>
+  </si>
+  <si>
+    <t>根据房东30天内的房源录入量，在线签约量等纬度的数据，计算房东活跃度</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.CaculateLandlordCreditsTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.CaculateLandlordCreditsTask"}</t>
+  </si>
+  <si>
+    <t>每日04:00:00执行</t>
+  </si>
+  <si>
+    <t>尝试重复执行一次，若仍有错，需开发修复</t>
+  </si>
+  <si>
+    <t>5.0.1</t>
+  </si>
+  <si>
     <t>SyncWebPagePVTask</t>
   </si>
   <si>
@@ -402,9 +429,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -441,20 +468,49 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -465,6 +521,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -481,16 +574,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,50 +597,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -558,36 +607,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,8 +625,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -628,181 +655,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,15 +965,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,21 +999,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1007,6 +1010,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,6 +1042,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1038,10 +1065,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1050,133 +1077,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1186,7 +1213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1223,6 +1250,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="49" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1236,21 +1275,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1293,7 +1317,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1305,10 +1329,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1318,26 +1351,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1364,7 +1381,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1693,7 +1710,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1752,28 +1769,28 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="62" t="s">
+      <c r="Q1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="63" t="s">
+      <c r="R1" s="59" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1800,13 +1817,13 @@
         <v>22</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="35" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="36" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="8" t="s">
@@ -1818,533 +1835,533 @@
       <c r="N2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="R2" s="36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="27" spans="1:18">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
+    <row r="3" s="2" customFormat="1" ht="14.25" spans="1:18">
+      <c r="A3" s="7"/>
+      <c r="B3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="M3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="45" t="s">
+      <c r="N3" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="O3" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="47" t="s">
+      <c r="P3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="64" t="s">
+      <c r="Q3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="37" t="s">
-        <v>31</v>
+      <c r="R3" s="36" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" ht="27" spans="1:18">
-      <c r="A4" s="12"/>
-      <c r="B4" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="C4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="27" spans="1:18">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="40" t="s">
+      <c r="H5" s="21"/>
+      <c r="I5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" s="37" t="s">
+      <c r="K5" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:18">
-      <c r="A5" s="12"/>
-      <c r="B5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23" t="s">
-        <v>55</v>
+      <c r="R5" s="36" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:18">
-      <c r="A6" s="12"/>
-      <c r="B6" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="23" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="52" t="s">
+      <c r="C6" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" s="23" t="s">
+      <c r="M6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23" t="s">
-        <v>55</v>
+      <c r="P6" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:18">
-      <c r="A7" s="12"/>
-      <c r="B7" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="52" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="54" t="s">
+      <c r="K7" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="23" t="s">
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:18">
+      <c r="A8" s="16"/>
+      <c r="B8" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="P7" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23" t="s">
-        <v>55</v>
+      <c r="P8" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="14.25" spans="1:18">
-      <c r="A8" s="12"/>
-      <c r="B8" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="52" t="s">
+    <row r="9" s="3" customFormat="1" ht="14.25" spans="1:18">
+      <c r="A9" s="16"/>
+      <c r="B9" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J9" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="O8" s="56" t="s">
+      <c r="K9" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="P8" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="16.5" spans="1:18">
-      <c r="A9" s="12"/>
-      <c r="B9" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="N9" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23" t="s">
-        <v>55</v>
+      <c r="P9" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" ht="16.5" spans="1:18">
-      <c r="A10" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="52" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="M10" s="59"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="P10" s="61" t="s">
+      <c r="K10" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23" t="s">
-        <v>55</v>
+      <c r="M10" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="27" spans="1:18">
-      <c r="A11" s="31"/>
-      <c r="B11" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="52" t="s">
+    <row r="11" s="3" customFormat="1" ht="16.5" spans="1:18">
+      <c r="A11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="L11" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="N11" s="60"/>
-      <c r="O11" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="P11" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23" t="s">
-        <v>55</v>
+      <c r="K11" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="55"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="27" spans="1:18">
-      <c r="A12" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="40" t="s">
+    <row r="12" s="3" customFormat="1" ht="27" spans="1:18">
+      <c r="A12" s="30"/>
+      <c r="B12" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="37" t="s">
+      <c r="K12" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="56"/>
+      <c r="O12" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="O12" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q12" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="R12" s="37" t="s">
-        <v>31</v>
+      <c r="P12" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="27.75" spans="1:18">
-      <c r="A13" s="33"/>
+    <row r="13" s="2" customFormat="1" ht="27" spans="1:18">
+      <c r="A13" s="31" t="s">
+        <v>94</v>
+      </c>
       <c r="B13" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>21</v>
@@ -2356,43 +2373,95 @@
         <v>22</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="43" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="37" t="s">
-        <v>94</v>
+      <c r="K13" s="36" t="s">
+        <v>97</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="O13" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="P13" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q13" s="37" t="s">
+      <c r="P13" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="R13" s="37" t="s">
+      <c r="R13" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="27.75" spans="1:18">
+      <c r="A14" s="32"/>
+      <c r="B14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" s="36" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XFD13"/>
+  <autoFilter ref="A1:XFD14"/>
   <mergeCells count="3">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/docs/timer/定时器整理 (EQ组).xlsx
+++ b/docs/timer/定时器整理 (EQ组).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\docs\timer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14070" tabRatio="185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="14070" tabRatio="185"/>
   </bookViews>
   <sheets>
     <sheet name="定时器" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">定时器!$1:$13</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="97">
   <si>
     <t>定时器大类</t>
   </si>
@@ -400,14 +405,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,157 +456,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,7 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,188 +494,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -932,257 +620,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1190,247 +636,208 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1691,15 +1098,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="4" customWidth="1"/>
@@ -1721,7 +1128,7 @@
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27.75" spans="1:18">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1752,650 +1159,656 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="62" t="s">
+      <c r="Q1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="63" t="s">
+      <c r="R1" s="57" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="27" spans="1:18">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="36" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="R2" s="31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="27" spans="1:18">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:18" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="60"/>
+      <c r="B3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="40" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="M3" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="45" t="s">
+      <c r="N3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="O3" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="47" t="s">
+      <c r="P3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="64" t="s">
+      <c r="Q3" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="37" t="s">
+      <c r="R3" s="31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="27" spans="1:18">
-      <c r="A4" s="12"/>
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="1:18" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="60"/>
+      <c r="B4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="40" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="51" t="s">
+      <c r="N4" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="37" t="s">
+      <c r="R4" s="31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:18">
-      <c r="A5" s="12"/>
-      <c r="B5" s="23" t="s">
+    <row r="5" spans="1:18" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="60"/>
+      <c r="B5" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="52" t="s">
+      <c r="H5" s="21"/>
+      <c r="I5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="54" t="s">
+      <c r="N5" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="55" t="s">
+      <c r="P5" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23" t="s">
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:18">
-      <c r="A6" s="12"/>
-      <c r="B6" s="23" t="s">
+    <row r="6" spans="1:18" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="60"/>
+      <c r="B6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="52" t="s">
+      <c r="H6" s="21"/>
+      <c r="I6" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="N6" s="54" t="s">
+      <c r="N6" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="55" t="s">
+      <c r="P6" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23" t="s">
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:18">
-      <c r="A7" s="12"/>
-      <c r="B7" s="23" t="s">
+    <row r="7" spans="1:18" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="60"/>
+      <c r="B7" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="52" t="s">
+      <c r="H7" s="21"/>
+      <c r="I7" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="L7" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="M7" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="54" t="s">
+      <c r="N7" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="P7" s="55" t="s">
+      <c r="P7" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23" t="s">
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="14.25" spans="1:18">
-      <c r="A8" s="12"/>
-      <c r="B8" s="23" t="s">
+    <row r="8" spans="1:18" s="3" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="60"/>
+      <c r="B8" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="52" t="s">
+      <c r="H8" s="21"/>
+      <c r="I8" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="N8" s="54" t="s">
+      <c r="N8" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="O8" s="56" t="s">
+      <c r="O8" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="P8" s="57" t="s">
+      <c r="P8" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23" t="s">
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="16.5" spans="1:18">
-      <c r="A9" s="12"/>
-      <c r="B9" s="25" t="s">
+    <row r="9" spans="1:18" s="3" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="60"/>
+      <c r="B9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="52" t="s">
+      <c r="H9" s="27"/>
+      <c r="I9" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="58" t="s">
+      <c r="K9" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="59" t="s">
+      <c r="M9" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="60" t="s">
+      <c r="N9" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="O9" s="56" t="s">
+      <c r="O9" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="61" t="s">
+      <c r="P9" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23" t="s">
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="16.5" spans="1:18">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:18" s="3" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="52" t="s">
+      <c r="H10" s="27"/>
+      <c r="I10" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="L10" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="M10" s="59"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="56" t="s">
+      <c r="M10" s="53"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="61" t="s">
+      <c r="P10" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23" t="s">
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="27" spans="1:18">
-      <c r="A11" s="31"/>
-      <c r="B11" s="25" t="s">
+    <row r="11" spans="1:18" s="3" customFormat="1" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="62"/>
+      <c r="B11" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="52" t="s">
+      <c r="H11" s="27"/>
+      <c r="I11" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="58" t="s">
+      <c r="K11" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="M11" s="59" t="s">
+      <c r="M11" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="N11" s="60"/>
-      <c r="O11" s="56" t="s">
+      <c r="N11" s="54"/>
+      <c r="O11" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="P11" s="61" t="s">
+      <c r="P11" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23" t="s">
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="27" spans="1:18">
-      <c r="A12" s="32" t="s">
+    <row r="12" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="40" t="s">
+      <c r="H12" s="10"/>
+      <c r="I12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="37" t="s">
+      <c r="K12" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="O12" s="38" t="s">
+      <c r="O12" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="P12" s="39" t="s">
+      <c r="P12" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="Q12" s="37" t="s">
+      <c r="Q12" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="R12" s="37" t="s">
+      <c r="R12" s="31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="27.75" spans="1:18">
-      <c r="A13" s="33"/>
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="64"/>
+      <c r="B13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="40" t="s">
+      <c r="H13" s="10"/>
+      <c r="I13" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="K13" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="O13" s="38" t="s">
+      <c r="O13" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="P13" s="39" t="s">
+      <c r="P13" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="Q13" s="37" t="s">
+      <c r="Q13" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="R13" s="37" t="s">
+      <c r="R13" s="31" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XFD13"/>
+  <autoFilter ref="A1:XFD13">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="史欣欣"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/timer/定时器整理 (EQ组).xlsx
+++ b/docs/timer/定时器整理 (EQ组).xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\docs\timer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="14070" tabRatio="185"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="185"/>
   </bookViews>
   <sheets>
     <sheet name="定时器" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">定时器!$1:$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">定时器!$1:$14</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
   <si>
     <t>定时器大类</t>
   </si>
@@ -138,6 +133,33 @@
     <t>3.2.0</t>
   </si>
   <si>
+    <t>CalculateLandlordActiveScoreTask</t>
+  </si>
+  <si>
+    <t>计算房东活跃分定时器</t>
+  </si>
+  <si>
+    <t>未上线</t>
+  </si>
+  <si>
+    <t>根据房东30天内的房源录入量，在线签约量等纬度的数据，计算房东活跃度</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.CalculateLandlordActiveScoreTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.CalculateLandlordActiveScoreTask"}</t>
+  </si>
+  <si>
+    <t>每日04:00:00执行</t>
+  </si>
+  <si>
+    <t>尝试重复执行一次，若仍有错，需开发修复</t>
+  </si>
+  <si>
+    <t>5.0.3</t>
+  </si>
+  <si>
     <t>SyncWebPagePVTask</t>
   </si>
   <si>
@@ -405,8 +427,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,42 +468,173 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,7 +643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,8 +653,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -620,224 +965,498 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="49" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1098,37 +1717,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="35.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2"/>
+    <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="8.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.125" style="4" customWidth="1"/>
     <col min="10" max="10" width="9" style="4"/>
-    <col min="11" max="11" width="73.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="30.875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="66" style="2" customWidth="1"/>
-    <col min="14" max="14" width="62.25" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13" style="2" customWidth="1"/>
+    <col min="11" max="11" width="73.25" style="3" customWidth="1"/>
+    <col min="12" max="12" width="30.875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="66" style="3" customWidth="1"/>
+    <col min="14" max="14" width="62.25" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13" style="3" customWidth="1"/>
     <col min="16" max="16" width="31.875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="44.375" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="17" max="17" width="44.375" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="27.75" spans="1:18">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1159,122 +1778,122 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="56" t="s">
+      <c r="Q1" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="R1" s="60" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="59" t="s">
+    <row r="2" ht="27" spans="1:18">
+      <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="30" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="R2" s="36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="60"/>
-      <c r="B3" s="11" t="s">
+    <row r="3" customFormat="1" ht="27" customHeight="1" spans="1:18">
+      <c r="A3" s="7"/>
+      <c r="B3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>34</v>
+      <c r="E3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="15"/>
-      <c r="I3" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="35" t="s">
+      <c r="I3" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="12" t="s">
         <v>37</v>
       </c>
       <c r="O3" s="40" t="s">
@@ -1283,532 +1902,584 @@
       <c r="P3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="58" t="s">
+      <c r="Q3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="R3" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="27" spans="1:18">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="60"/>
-      <c r="B4" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="18" t="s">
+    <row r="5" s="2" customFormat="1" ht="27" spans="1:18">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="34" t="s">
+      <c r="H5" s="21"/>
+      <c r="I5" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" s="31" t="s">
+      <c r="K5" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="31" t="s">
-        <v>47</v>
+      <c r="R5" s="36" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="60"/>
-      <c r="B5" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="46" t="s">
+    <row r="6" s="2" customFormat="1" hidden="1" spans="1:18">
+      <c r="A6" s="16"/>
+      <c r="B6" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="J6" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" s="21" t="s">
+      <c r="K6" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21" t="s">
-        <v>55</v>
+      <c r="P6" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="60"/>
-      <c r="B6" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="46" t="s">
+    <row r="7" s="2" customFormat="1" hidden="1" spans="1:18">
+      <c r="A7" s="16"/>
+      <c r="B7" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J7" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" s="48" t="s">
+      <c r="K7" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" hidden="1" spans="1:18">
+      <c r="A8" s="16"/>
+      <c r="B8" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="F8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="49" t="s">
+      <c r="P8" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="14.25" hidden="1" spans="1:18">
+      <c r="A9" s="16"/>
+      <c r="B9" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21" t="s">
-        <v>55</v>
+      <c r="H9" s="22"/>
+      <c r="I9" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="60"/>
-      <c r="B7" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="46" t="s">
+    <row r="10" s="2" customFormat="1" ht="16.5" hidden="1" spans="1:18">
+      <c r="A10" s="16"/>
+      <c r="B10" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="48" t="s">
+      <c r="K10" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="8" spans="1:18" s="3" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="60"/>
-      <c r="B8" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="46" t="s">
+    <row r="11" s="2" customFormat="1" ht="16.5" hidden="1" spans="1:18">
+      <c r="A11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="47" t="s">
+      <c r="J11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="O8" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21" t="s">
-        <v>55</v>
+      <c r="K11" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="56"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="3" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="60"/>
-      <c r="B9" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="46" t="s">
+    <row r="12" s="2" customFormat="1" ht="27" hidden="1" spans="1:18">
+      <c r="A12" s="30"/>
+      <c r="B12" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="N9" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21" t="s">
-        <v>55</v>
+      <c r="K12" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="57"/>
+      <c r="O12" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="3" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="46" t="s">
+    <row r="13" ht="27" spans="1:18">
+      <c r="A13" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="M10" s="53"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="P10" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21" t="s">
-        <v>55</v>
+      <c r="K13" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" s="36" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="3" customFormat="1" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="62"/>
-      <c r="B11" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="46" t="s">
+    <row r="14" ht="27.75" spans="1:18">
+      <c r="A14" s="32"/>
+      <c r="B14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="N11" s="54"/>
-      <c r="O11" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="P11" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="O12" s="32" t="s">
+      <c r="K14" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O14" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="P12" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q12" s="31" t="s">
+      <c r="P14" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="R12" s="31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="64"/>
-      <c r="B13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="O13" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q13" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="31" t="s">
+      <c r="R14" s="36" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XFD13">
+  <autoFilter ref="A1:XFD14">
     <filterColumn colId="6">
-      <filters>
-        <filter val="史欣欣"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="史欣欣"/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="3">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/timer/定时器整理 (EQ组).xlsx
+++ b/docs/timer/定时器整理 (EQ组).xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="185"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="185"/>
   </bookViews>
   <sheets>
     <sheet name="定时器" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">定时器!$1:$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">定时器!$1:$15</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
   <si>
     <t>定时器大类</t>
   </si>
@@ -73,25 +73,7 @@
     <t>上线版本</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>mogoroom</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-tasktracker</t>
-    </r>
+    <t>mogoroom-tasktracker</t>
   </si>
   <si>
     <t>CalculateVScoreTask</t>
@@ -343,9 +325,6 @@
     </r>
   </si>
   <si>
-    <t>shell</t>
-  </si>
-  <si>
     <t>Sync.sh</t>
   </si>
   <si>
@@ -370,27 +349,6 @@
     <t>按需执行</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>mogoda</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-tasktracker</t>
-    </r>
-  </si>
-  <si>
     <t>CollectUserBehaviorRecordTask</t>
   </si>
   <si>
@@ -422,6 +380,27 @@
   </si>
   <si>
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.AnalysisUserBehaviorRecordTask"}</t>
+  </si>
+  <si>
+    <t>BrandOnlineNotifyTask</t>
+  </si>
+  <si>
+    <t>品牌上线提醒</t>
+  </si>
+  <si>
+    <t>薛冠宙</t>
+  </si>
+  <si>
+    <t>每天9点，查询当天需要上线品牌，给指定人员发送邮件进行提醒</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.BrandOnlineNotifyTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.BrandOnlineNotifyTask"}</t>
+  </si>
+  <si>
+    <t>每日09:00:00执行</t>
   </si>
 </sst>
 </file>
@@ -429,12 +408,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,7 +457,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,7 +526,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,6 +534,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,20 +577,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -537,31 +587,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,65 +600,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -655,31 +627,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,7 +783,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,146 +811,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -864,20 +836,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -899,6 +858,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -909,23 +881,10 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -966,21 +925,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -992,9 +936,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1016,11 +962,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1040,26 +1014,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,10 +1030,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1083,133 +1042,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1219,7 +1178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1241,8 +1200,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1259,32 +1221,41 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="49" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="49" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1293,34 +1264,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1332,35 +1292,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1372,31 +1332,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="49" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1719,10 +1679,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1778,28 +1738,28 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="59" t="s">
+      <c r="Q1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="R1" s="61" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1810,673 +1770,719 @@
       <c r="B2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="37" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="27" customHeight="1" spans="1:18">
       <c r="A3" s="7"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="35" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="O3" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="41" t="s">
+      <c r="P3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="Q3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="27" spans="1:18">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="42" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="N4" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="47" t="s">
+      <c r="O4" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="48" t="s">
+      <c r="P4" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="37" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="27" spans="1:18">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="42" t="s">
+      <c r="H5" s="23"/>
+      <c r="I5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="46" t="s">
+      <c r="N5" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="38" t="s">
+      <c r="P5" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="R5" s="37" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" hidden="1" spans="1:18">
-      <c r="A6" s="16"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="49" t="s">
+      <c r="H6" s="26"/>
+      <c r="I6" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="51" t="s">
+      <c r="N6" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="52" t="s">
+      <c r="P6" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22" t="s">
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" hidden="1" spans="1:18">
-      <c r="A7" s="16"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="49" t="s">
+      <c r="H7" s="26"/>
+      <c r="I7" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="51" t="s">
+      <c r="N7" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="O7" s="22" t="s">
+      <c r="O7" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="P7" s="52" t="s">
+      <c r="P7" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22" t="s">
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" hidden="1" spans="1:18">
-      <c r="A8" s="16"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="49" t="s">
+      <c r="H8" s="26"/>
+      <c r="I8" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="N8" s="51" t="s">
+      <c r="N8" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="22" t="s">
+      <c r="O8" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="P8" s="52" t="s">
+      <c r="P8" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22" t="s">
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="14.25" hidden="1" spans="1:18">
-      <c r="A9" s="16"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="49" t="s">
+      <c r="H9" s="26"/>
+      <c r="I9" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="N9" s="51" t="s">
+      <c r="N9" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="O9" s="53" t="s">
+      <c r="O9" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="54" t="s">
+      <c r="P9" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22" t="s">
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="16.5" hidden="1" spans="1:18">
-      <c r="A10" s="16"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="49" t="s">
+      <c r="H10" s="33"/>
+      <c r="I10" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="55" t="s">
+      <c r="K10" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="M10" s="56" t="s">
+      <c r="M10" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="N10" s="57" t="s">
+      <c r="N10" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="O10" s="53" t="s">
+      <c r="O10" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="58" t="s">
+      <c r="P10" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22" t="s">
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="16.5" hidden="1" spans="1:18">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="C11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="E11" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="L11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="M11" s="56"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="53" t="s">
+      <c r="P11" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="P11" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22" t="s">
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="27" hidden="1" spans="1:18">
-      <c r="A12" s="30"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="E12" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="L12" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="M12" s="56" t="s">
+      <c r="N12" s="58"/>
+      <c r="O12" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="N12" s="57"/>
-      <c r="O12" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="P12" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22" t="s">
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:18">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="E13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="L13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="36" t="s">
+      <c r="N13" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="L13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M13" s="8" t="s">
+      <c r="O13" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="N13" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="O13" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="36" t="s">
+      <c r="Q13" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="R13" s="36" t="s">
+      <c r="R13" s="37" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" ht="27.75" spans="1:18">
-      <c r="A14" s="32"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="L14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M14" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="N14" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O14" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" ht="27.75" customHeight="1" spans="1:18">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="10" t="s">
+      <c r="H15" s="12"/>
+      <c r="I15" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="M14" s="8" t="s">
+      <c r="K15" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="N14" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="O14" s="37" t="s">
+      <c r="M15" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O15" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="P14" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="R14" s="36" t="s">
-        <v>31</v>
+      <c r="P15" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q15" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" s="37" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XFD14">
+  <autoFilter ref="A1:XFD15">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="equal" val="史欣欣"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A15"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/docs/timer/定时器整理 (EQ组).xlsx
+++ b/docs/timer/定时器整理 (EQ组).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRepertory\Mogo_Doc\docs\timer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="185"/>
   </bookViews>
   <sheets>
     <sheet name="定时器" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">定时器!$1:$15</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="128">
   <si>
     <t>定时器大类</t>
   </si>
@@ -261,6 +266,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>每天0</t>
@@ -270,6 +276,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3:00:00执行</t>
@@ -287,6 +294,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>com.mogoroom.tasktracker.task</t>
@@ -296,6 +304,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.RoomPriceTask</t>
@@ -310,6 +319,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>每天23</t>
@@ -319,6 +329,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>:30:00执行</t>
@@ -402,18 +413,92 @@
   <si>
     <t>每日09:00:00执行</t>
   </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  雷传盛</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  雷传盛</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天02:30:03执行</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新计算房源最低价更新房源表的showPrice字段</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RoomScoreTask</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RoomPriceTask</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomPriceTask"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天23:30:00执行</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>执行helpContentQuartz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.sh脚本</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行keywordQuartz.sh脚本</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行roomPriceQuartz.sh脚本</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行roomScoreQuartz.sh脚本</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行roomSearchQuartz.sh脚本</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  彭晓春</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新计算房源评分（新规则）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,6 +511,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -433,6 +519,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -440,12 +527,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -453,160 +542,62 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,7 +606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,194 +616,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -925,498 +730,277 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="49" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="49" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="5"/>
+    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 3 2" xfId="4"/>
+    <cellStyle name="常规 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1677,15 +1261,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="3" customWidth="1"/>
     <col min="2" max="2" width="33.625" style="4" customWidth="1"/>
@@ -1707,7 +1291,7 @@
     <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27.75" spans="1:18">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1738,754 +1322,981 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="R1" s="59" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:18">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="36" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="R2" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="27" customHeight="1" spans="1:18">
-      <c r="A3" s="7"/>
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:18" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="61"/>
+      <c r="B3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="36" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="41" t="s">
+      <c r="O3" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="P3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="Q3" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="37" t="s">
+      <c r="R3" s="35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="27" spans="1:18">
-      <c r="A4" s="7"/>
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="61"/>
+      <c r="B4" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="43" t="s">
+      <c r="H4" s="22"/>
+      <c r="I4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="45" t="s">
+      <c r="L4" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="47" t="s">
+      <c r="N4" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="48" t="s">
+      <c r="O4" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="49" t="s">
+      <c r="P4" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="37" t="s">
+      <c r="R4" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="27" spans="1:18">
-      <c r="A5" s="7"/>
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="61"/>
+      <c r="B5" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="43" t="s">
+      <c r="H5" s="22"/>
+      <c r="I5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="46" t="s">
+      <c r="M5" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="47" t="s">
+      <c r="N5" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="O5" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" s="37" t="s">
+      <c r="Q5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="37" t="s">
+      <c r="R5" s="35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" hidden="1" spans="1:18">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25" t="s">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="61"/>
+      <c r="B6" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="50" t="s">
+      <c r="H6" s="24"/>
+      <c r="I6" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="51" t="s">
+      <c r="J6" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="52" t="s">
+      <c r="N6" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="O6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="53" t="s">
+      <c r="P6" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26" t="s">
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" hidden="1" spans="1:18">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25" t="s">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="61"/>
+      <c r="B7" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="50" t="s">
+      <c r="H7" s="24"/>
+      <c r="I7" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="51" t="s">
+      <c r="J7" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="52" t="s">
+      <c r="N7" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="O7" s="26" t="s">
+      <c r="O7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="P7" s="53" t="s">
+      <c r="P7" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26" t="s">
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" hidden="1" spans="1:18">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25" t="s">
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="61"/>
+      <c r="B8" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="50" t="s">
+      <c r="H8" s="24"/>
+      <c r="I8" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="51" t="s">
+      <c r="J8" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="L8" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="N8" s="52" t="s">
+      <c r="N8" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="O8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="P8" s="53" t="s">
+      <c r="P8" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26" t="s">
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="14.25" hidden="1" spans="1:18">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25" t="s">
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="61"/>
+      <c r="B9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="50" t="s">
+      <c r="H9" s="24"/>
+      <c r="I9" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="51" t="s">
+      <c r="J9" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="N9" s="52" t="s">
+      <c r="N9" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="O9" s="54" t="s">
+      <c r="O9" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="55" t="s">
+      <c r="P9" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26" t="s">
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="16.5" hidden="1" spans="1:18">
-      <c r="A10" s="24"/>
-      <c r="B10" s="28" t="s">
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="61"/>
+      <c r="B10" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="50" t="s">
+      <c r="H10" s="31"/>
+      <c r="I10" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="56" t="s">
+      <c r="K10" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="M10" s="57" t="s">
+      <c r="M10" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="N10" s="58" t="s">
+      <c r="N10" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="O10" s="54" t="s">
+      <c r="O10" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="59" t="s">
+      <c r="P10" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26" t="s">
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="16.5" hidden="1" spans="1:18">
-      <c r="A11" s="24"/>
-      <c r="B11" s="28" t="s">
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="61"/>
+      <c r="B11" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="50" t="s">
+      <c r="H11" s="31"/>
+      <c r="I11" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="54" t="s">
+      <c r="M11" s="55"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="P11" s="59" t="s">
+      <c r="P11" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26" t="s">
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="27" hidden="1" spans="1:18">
-      <c r="A12" s="24"/>
-      <c r="B12" s="28" t="s">
+    <row r="12" spans="1:18" s="2" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="61"/>
+      <c r="B12" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="50" t="s">
+      <c r="H12" s="31"/>
+      <c r="I12" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="56" t="s">
+      <c r="K12" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="L12" s="29" t="s">
+      <c r="L12" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="M12" s="57" t="s">
+      <c r="M12" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="N12" s="58"/>
-      <c r="O12" s="54" t="s">
+      <c r="N12" s="56"/>
+      <c r="O12" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="P12" s="59" t="s">
+      <c r="P12" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26" t="s">
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" ht="27" spans="1:18">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="61"/>
+      <c r="B13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="43" t="s">
+      <c r="H13" s="11"/>
+      <c r="I13" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="K13" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="O13" s="38" t="s">
+      <c r="O13" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="P13" s="39" t="s">
+      <c r="P13" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="Q13" s="37" t="s">
+      <c r="Q13" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="R13" s="37" t="s">
+      <c r="R13" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" ht="27.75" spans="1:18">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="61"/>
+      <c r="B14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="43" t="s">
+      <c r="H14" s="11"/>
+      <c r="I14" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="37" t="s">
+      <c r="K14" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="O14" s="38" t="s">
+      <c r="O14" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="P14" s="39" t="s">
+      <c r="P14" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="Q14" s="37" t="s">
+      <c r="Q14" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="R14" s="37" t="s">
+      <c r="R14" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" ht="27.75" customHeight="1" spans="1:18">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="61"/>
+      <c r="B15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="43" t="s">
+      <c r="H15" s="11"/>
+      <c r="I15" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="O15" s="38" t="s">
+      <c r="O15" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="P15" s="39" t="s">
+      <c r="P15" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="Q15" s="37" t="s">
+      <c r="Q15" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="37" t="s">
+      <c r="R15" s="35" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16" s="69"/>
+      <c r="B16" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="62"/>
+      <c r="I16" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="N16" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="O16" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="67" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17" s="69"/>
+      <c r="B17" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="62"/>
+      <c r="G17" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="62"/>
+      <c r="I17" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="N17" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="O17" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="69"/>
+      <c r="B18" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="62"/>
+      <c r="G18" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="62"/>
+      <c r="I18" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="N18" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="O18" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q18" s="67" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19" s="69"/>
+      <c r="B19" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="62"/>
+      <c r="I19" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="N19" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="O19" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q19" s="67" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20" s="69"/>
+      <c r="B20" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="62"/>
+      <c r="G20" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="62"/>
+      <c r="I20" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="L20" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="O20" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q20" s="67" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:XFD15">
     <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="equal" val="史欣欣"/>
-      </customFilters>
+      <filters>
+        <filter val="史欣欣"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A2:A20"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/timer/定时器整理 (EQ组).xlsx
+++ b/docs/timer/定时器整理 (EQ组).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="129">
   <si>
     <t>定时器大类</t>
   </si>
@@ -491,6 +491,10 @@
   </si>
   <si>
     <t>重新计算房源评分（新规则）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>已上线</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -952,35 +956,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1265,8 +1269,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1402,7 +1406,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="61"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="12" t="s">
         <v>32</v>
       </c>
@@ -1454,7 +1458,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="61"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="17" t="s">
         <v>41</v>
       </c>
@@ -1506,7 +1510,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="61"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="17" t="s">
         <v>49</v>
       </c>
@@ -1558,7 +1562,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="61"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="23" t="s">
         <v>57</v>
       </c>
@@ -1608,7 +1612,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="61"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="23" t="s">
         <v>65</v>
       </c>
@@ -1658,7 +1662,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="61"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="23" t="s">
         <v>70</v>
       </c>
@@ -1708,7 +1712,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="61"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="23" t="s">
         <v>75</v>
       </c>
@@ -1758,7 +1762,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="61"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="26" t="s">
         <v>80</v>
       </c>
@@ -1808,7 +1812,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="61"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="26" t="s">
         <v>85</v>
       </c>
@@ -1854,7 +1858,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="61"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="26" t="s">
         <v>89</v>
       </c>
@@ -1902,7 +1906,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="61"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="7" t="s">
         <v>93</v>
       </c>
@@ -1954,7 +1958,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="61"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="7" t="s">
         <v>99</v>
       </c>
@@ -2006,7 +2010,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="61"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="7" t="s">
         <v>104</v>
       </c>
@@ -2058,230 +2062,245 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A16" s="69"/>
-      <c r="B16" s="70" t="s">
+      <c r="A16" s="70"/>
+      <c r="B16" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63" t="s">
+      <c r="F16" s="61"/>
+      <c r="G16" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="64" t="s">
+      <c r="H16" s="61"/>
+      <c r="I16" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62" t="s">
+      <c r="J16" s="61"/>
+      <c r="K16" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="62" t="s">
+      <c r="L16" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="62" t="s">
+      <c r="M16" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="N16" s="65" t="s">
+      <c r="N16" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="O16" s="62" t="s">
+      <c r="O16" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="P16" s="63" t="s">
+      <c r="P16" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="Q16" s="67" t="s">
+      <c r="Q16" s="66" t="s">
         <v>120</v>
       </c>
+      <c r="R16" s="66" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A17" s="70"/>
+      <c r="B17" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63" t="s">
+      <c r="F17" s="61"/>
+      <c r="G17" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="62"/>
-      <c r="I17" s="64" t="s">
+      <c r="H17" s="61"/>
+      <c r="I17" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62" t="s">
+      <c r="J17" s="61"/>
+      <c r="K17" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="62" t="s">
+      <c r="L17" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="M17" s="62" t="s">
+      <c r="M17" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="N17" s="65" t="s">
+      <c r="N17" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="O17" s="62" t="s">
+      <c r="O17" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="P17" s="63" t="s">
+      <c r="P17" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="Q17" s="67" t="s">
+      <c r="Q17" s="66" t="s">
         <v>121</v>
       </c>
+      <c r="R17" s="66" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="18" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70" t="s">
+    <row r="18" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="70"/>
+      <c r="B18" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63" t="s">
+      <c r="F18" s="61"/>
+      <c r="G18" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="62"/>
-      <c r="I18" s="64" t="s">
+      <c r="H18" s="61"/>
+      <c r="I18" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62" t="s">
+      <c r="J18" s="61"/>
+      <c r="K18" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="L18" s="62" t="s">
+      <c r="L18" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="M18" s="62" t="s">
+      <c r="M18" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="N18" s="65" t="s">
+      <c r="N18" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="O18" s="62" t="s">
+      <c r="O18" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="P18" s="63" t="s">
+      <c r="P18" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="Q18" s="67" t="s">
+      <c r="Q18" s="66" t="s">
         <v>122</v>
       </c>
+      <c r="R18" s="66" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A19" s="70"/>
+      <c r="B19" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="63" t="s">
+      <c r="F19" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="63" t="s">
+      <c r="G19" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="62"/>
-      <c r="I19" s="64" t="s">
+      <c r="H19" s="61"/>
+      <c r="I19" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62" t="s">
+      <c r="J19" s="61"/>
+      <c r="K19" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="L19" s="62" t="s">
+      <c r="L19" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="M19" s="62" t="s">
+      <c r="M19" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="N19" s="65" t="s">
+      <c r="N19" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="O19" s="62" t="s">
+      <c r="O19" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="P19" s="63" t="s">
+      <c r="P19" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="Q19" s="67" t="s">
+      <c r="Q19" s="66" t="s">
         <v>123</v>
       </c>
+      <c r="R19" s="66" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A20" s="70"/>
+      <c r="B20" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63" t="s">
+      <c r="F20" s="61"/>
+      <c r="G20" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="64" t="s">
+      <c r="H20" s="61"/>
+      <c r="I20" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62" t="s">
+      <c r="J20" s="61"/>
+      <c r="K20" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="L20" s="62" t="s">
+      <c r="L20" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="M20" s="62" t="s">
+      <c r="M20" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="N20" s="65" t="s">
+      <c r="N20" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="O20" s="62" t="s">
+      <c r="O20" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="P20" s="66" t="s">
+      <c r="P20" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="Q20" s="67" t="s">
+      <c r="Q20" s="66" t="s">
         <v>124</v>
+      </c>
+      <c r="R20" s="66" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/docs/timer/定时器整理 (EQ组).xlsx
+++ b/docs/timer/定时器整理 (EQ组).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRepertory\Mogo_Doc\docs\timer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\docs\timer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="126">
   <si>
     <t>定时器大类</t>
   </si>
@@ -42,12 +42,6 @@
     <t>责任人</t>
   </si>
   <si>
-    <t>项目经理</t>
-  </si>
-  <si>
-    <t>使用文档</t>
-  </si>
-  <si>
     <t>使用与否</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>金刚</t>
   </si>
   <si>
-    <t>史欣欣</t>
-  </si>
-  <si>
     <t>使用中</t>
   </si>
   <si>
@@ -124,9 +115,6 @@
   </si>
   <si>
     <t>计算房东活跃分定时器</t>
-  </si>
-  <si>
-    <t>未上线</t>
   </si>
   <si>
     <t>根据房东30天内的房源录入量，在线签约量等纬度的数据，计算房东活跃度</t>
@@ -418,35 +406,35 @@
   </si>
   <si>
     <t xml:space="preserve">  雷传盛</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  雷传盛</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天02:30:03执行</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  雷传盛</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天02:30:03执行</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>重新计算房源最低价更新房源表的showPrice字段</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>com.mogoroom.tasktracker.task.RoomScoreTask</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>com.mogoroom.tasktracker.task.RoomPriceTask</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomPriceTask"}</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>每天23:30:00执行</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -463,46 +451,50 @@
       </rPr>
       <t>.sh脚本</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>执行keywordQuartz.sh脚本</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>执行roomPriceQuartz.sh脚本</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>执行roomScoreQuartz.sh脚本</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>执行roomSearchQuartz.sh脚本</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  彭晓春</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>史欣欣</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>重新计算房源评分（新规则）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>已上线</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责组别</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,13 +518,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -621,7 +606,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -734,21 +719,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -762,39 +732,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -812,9 +782,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -827,49 +794,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -877,9 +832,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -898,53 +850,50 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -953,31 +902,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1267,35 +1219,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.875" style="3" customWidth="1"/>
     <col min="4" max="4" width="26.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="8.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9" style="4"/>
-    <col min="11" max="11" width="73.25" style="3" customWidth="1"/>
-    <col min="12" max="12" width="30.875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="66" style="3" customWidth="1"/>
-    <col min="14" max="14" width="62.25" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13" style="3" customWidth="1"/>
-    <col min="16" max="16" width="31.875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="44.375" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="3"/>
+    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12" style="4" customWidth="1"/>
+    <col min="10" max="10" width="68.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="30.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="66" style="3" customWidth="1"/>
+    <col min="13" max="13" width="62.25" style="3" customWidth="1"/>
+    <col min="14" max="14" width="13" style="3" customWidth="1"/>
+    <col min="15" max="15" width="31.875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="44.375" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1315,996 +1266,992 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="L1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="M1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="N1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="O1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="P1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="Q1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="58" t="s">
+    </row>
+    <row r="2" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="59" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="3" spans="1:17" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="63"/>
+      <c r="B3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="F3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="G3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="63"/>
+      <c r="B4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="63"/>
+      <c r="B5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="63"/>
+      <c r="B6" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="I6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="J6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="63"/>
+      <c r="B7" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="35" t="s">
+      <c r="J7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="63"/>
+      <c r="B8" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="63"/>
+      <c r="B9" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="63"/>
+      <c r="B10" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="63"/>
+      <c r="B11" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="48"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="63"/>
+      <c r="B12" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="49"/>
+      <c r="N12" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="63"/>
+      <c r="B13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="N13" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="O13" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="63"/>
+      <c r="B14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="F14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="Q14" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="35" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="3" spans="1:18" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="69"/>
-      <c r="B3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="15" t="s">
+    <row r="15" spans="1:17" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="63"/>
+      <c r="B15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="69"/>
-      <c r="B4" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="69"/>
-      <c r="B5" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="69"/>
-      <c r="B6" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="P6" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="69"/>
-      <c r="B7" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="69"/>
-      <c r="B8" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="N8" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="O8" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="69"/>
-      <c r="B9" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="N9" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="O9" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="69"/>
-      <c r="B10" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="O10" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="P10" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="69"/>
-      <c r="B11" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" s="55"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="P11" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="69"/>
-      <c r="B12" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="M12" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="N12" s="56"/>
-      <c r="O12" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="P12" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="69"/>
-      <c r="B13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="O13" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="69"/>
-      <c r="B14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="J15" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="O14" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="P14" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q14" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="R14" s="35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="69"/>
-      <c r="B15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>107</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>104</v>
       </c>
       <c r="M15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="64"/>
+      <c r="B16" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="F16" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q16" s="60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="64"/>
+      <c r="B17" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q17" s="60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="64"/>
+      <c r="B18" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="M18" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="N18" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="P18" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18" s="60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="64"/>
+      <c r="B19" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="M19" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="N19" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q19" s="60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="64"/>
+      <c r="B20" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="O15" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15" s="37" t="s">
+      <c r="F20" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="Q15" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="R15" s="35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A16" s="70"/>
-      <c r="B16" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="61"/>
-      <c r="G16" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="61"/>
-      <c r="I16" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="M16" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="N16" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="O16" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="P16" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q16" s="66" t="s">
+      <c r="P20" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="R16" s="66" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A17" s="70"/>
-      <c r="B17" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="61"/>
-      <c r="G17" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="61"/>
-      <c r="I17" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="N17" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="O17" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="P17" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q17" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="R17" s="66" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="70"/>
-      <c r="B18" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="61"/>
-      <c r="G18" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="61"/>
-      <c r="I18" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="L18" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="M18" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="N18" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="O18" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="P18" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q18" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="R18" s="66" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A19" s="70"/>
-      <c r="B19" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="61"/>
-      <c r="I19" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="L19" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="N19" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="O19" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="P19" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q19" s="66" t="s">
+      <c r="Q20" s="60" t="s">
         <v>123</v>
-      </c>
-      <c r="R19" s="66" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A20" s="70"/>
-      <c r="B20" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="61"/>
-      <c r="G20" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="61"/>
-      <c r="I20" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="L20" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="M20" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="N20" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="O20" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q20" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="R20" s="66" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XFD15">
+  <autoFilter ref="A1:XFC15">
     <filterColumn colId="6">
       <filters>
         <filter val="史欣欣"/>
@@ -2314,7 +2261,7 @@
   <mergeCells count="1">
     <mergeCell ref="A2:A20"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docs/timer/定时器整理 (EQ组).xlsx
+++ b/docs/timer/定时器整理 (EQ组).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\docs\timer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRepertory\Mogo_Doc\docs\timer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="134">
   <si>
     <t>定时器大类</t>
   </si>
@@ -487,6 +487,38 @@
   </si>
   <si>
     <t>EQ</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomScorePreTask</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源评分前置定时器（新规则）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源评分前置定时器(从comm_business_record源头获取数据新增或更新房源评分明细表)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomScorePreTask</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RoomScorePreTask</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomScorePreTask"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天02:00:00执行</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行roomScorePreQuartz.sh脚本</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1219,10 +1251,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2148,16 +2180,16 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="64"/>
       <c r="B19" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>66</v>
+        <v>126</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>126</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E19" s="55" t="s">
         <v>121</v>
@@ -2175,25 +2207,25 @@
         <v>21</v>
       </c>
       <c r="J19" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="K19" s="54" t="s">
-        <v>66</v>
+        <v>128</v>
+      </c>
+      <c r="K19" s="58" t="s">
+        <v>129</v>
       </c>
       <c r="L19" s="54" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="M19" s="57" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="N19" s="54" t="s">
         <v>2</v>
       </c>
       <c r="O19" s="59" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="P19" s="60" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="60" t="s">
         <v>123</v>
@@ -2202,16 +2234,16 @@
     <row r="20" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="64"/>
       <c r="B20" s="58" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F20" s="55" t="s">
         <v>121</v>
@@ -2226,27 +2258,78 @@
         <v>21</v>
       </c>
       <c r="J20" s="54" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="K20" s="54" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L20" s="54" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="M20" s="57" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="N20" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="O20" s="61" t="s">
+      <c r="O20" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="64"/>
+      <c r="B21" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="N21" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="O21" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="P20" s="60" t="s">
+      <c r="P21" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="Q20" s="60" t="s">
+      <c r="Q21" s="60" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2259,7 +2342,7 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="A2:A21"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/timer/定时器整理 (EQ组).xlsx
+++ b/docs/timer/定时器整理 (EQ组).xlsx
@@ -10,14 +10,14 @@
     <sheet name="定时器" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">定时器!$A$1:$XFC$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">定时器!$A$1:$XFC$25</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
   <si>
     <t>定时器大类</t>
   </si>
@@ -524,6 +524,27 @@
   <si>
     <t>每隔60分钟执行一次</t>
   </si>
+  <si>
+    <t>TeleAPIAvailCheckTask</t>
+  </si>
+  <si>
+    <t>400API服务探针</t>
+  </si>
+  <si>
+    <t>监控teleapi对第三方开放的两个接口服务的联通性，如无法访问则告警</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.TeleAPIAvailCheckTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.TeleAPIAvailCheckTask"}</t>
+  </si>
+  <si>
+    <t>每隔30秒执行一次</t>
+  </si>
+  <si>
+    <t>5.3.6</t>
+  </si>
 </sst>
 </file>
 
@@ -531,11 +552,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,13 +566,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -573,23 +587,32 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -601,9 +624,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,15 +661,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -642,7 +677,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,32 +706,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -693,45 +730,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,7 +743,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -764,7 +764,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,7 +878,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,84 +926,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -878,73 +938,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,6 +1075,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1098,23 +1107,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,6 +1139,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1148,26 +1162,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1176,10 +1170,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1188,148 +1182,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1341,16 +1335,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="51" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="51" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="51" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="51" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1365,13 +1359,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1383,57 +1377,57 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="45" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="45" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="45" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="45" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="45" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="45" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1451,7 +1445,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1460,65 +1454,65 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="51" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="51" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="51" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="51" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="45" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="45" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="45" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="45" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1845,10 +1839,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3029,7 +3023,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" ht="27.75" spans="1:17">
+    <row r="24" s="3" customFormat="1" ht="27.75" spans="1:17">
       <c r="A24" s="31"/>
       <c r="B24" s="32" t="s">
         <v>141</v>
@@ -3080,8 +3074,59 @@
         <v>136</v>
       </c>
     </row>
+    <row r="25" ht="14.25" spans="1:17">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="M25" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="N25" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O25" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q25" s="62" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:XFC24">
+  <autoFilter ref="A1:XFC25">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="equal" val="史欣欣"/>
@@ -3089,7 +3134,7 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="A2:A24"/>
+    <mergeCell ref="A2:A25"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/docs/timer/定时器整理 (EQ组).xlsx
+++ b/docs/timer/定时器整理 (EQ组).xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="185"/>
+    <workbookView windowWidth="28080" windowHeight="14070" tabRatio="185"/>
   </bookViews>
   <sheets>
     <sheet name="定时器" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">定时器!$A$1:$XFC$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">定时器!$A$1:$XFC$26</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
   <si>
     <t>定时器大类</t>
   </si>
@@ -545,6 +545,21 @@
   <si>
     <t>5.3.6</t>
   </si>
+  <si>
+    <t>TelePromotionExtCreationTask</t>
+  </si>
+  <si>
+    <t>批量创建TP渠道分机定时器</t>
+  </si>
+  <si>
+    <t>对于具备TP资质的房东，为其批量创建TP渠道的分机</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.TelePromotionExtCreationTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.TelePromotionExtCreationTask"}</t>
+  </si>
 </sst>
 </file>
 
@@ -552,9 +567,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -593,6 +608,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -609,47 +660,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -661,61 +676,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -731,7 +693,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,7 +779,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,7 +821,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,157 +947,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,65 +1080,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1149,6 +1105,65 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1170,10 +1185,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1182,139 +1197,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1839,10 +1854,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3074,7 +3089,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:17">
+    <row r="25" s="3" customFormat="1" ht="14.25" spans="1:17">
       <c r="A25" s="31"/>
       <c r="B25" s="32" t="s">
         <v>146</v>
@@ -3125,8 +3140,57 @@
         <v>152</v>
       </c>
     </row>
+    <row r="26" ht="14.25" spans="1:17">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="M26" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="N26" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O26" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q26" s="62"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:XFC25">
+  <autoFilter ref="A1:XFC26">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="equal" val="史欣欣"/>
@@ -3134,7 +3198,7 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A2:A26"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/docs/timer/定时器整理 (EQ组).xlsx
+++ b/docs/timer/定时器整理 (EQ组).xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14070" tabRatio="185"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="185"/>
   </bookViews>
   <sheets>
     <sheet name="定时器" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">定时器!$A$1:$XFC$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">定时器!$A$1:$XFC$29</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170">
   <si>
     <t>定时器大类</t>
   </si>
@@ -25,184 +25,187 @@
     <t>定时器文件</t>
   </si>
   <si>
+    <t>TeleFixSungoinDataTask</t>
+  </si>
+  <si>
+    <t>用途</t>
+  </si>
+  <si>
+    <t>开发人</t>
+  </si>
+  <si>
+    <t>责任人</t>
+  </si>
+  <si>
+    <t>负责组别</t>
+  </si>
+  <si>
+    <t>使用与否</t>
+  </si>
+  <si>
+    <t>可否删除</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>新定时器名称</t>
+  </si>
+  <si>
+    <t>定时器类名称</t>
+  </si>
+  <si>
+    <t>定时器执行参数</t>
+  </si>
+  <si>
+    <t>任务类型</t>
+  </si>
+  <si>
+    <t>周期（计划任务表达式）</t>
+  </si>
+  <si>
+    <t>报错补救方案</t>
+  </si>
+  <si>
+    <t>上线版本</t>
+  </si>
+  <si>
+    <t>mogoroom-tasktracker</t>
+  </si>
+  <si>
+    <t>CalculateVScoreTask</t>
+  </si>
+  <si>
+    <t>计算房东V分</t>
+  </si>
+  <si>
+    <t>金刚</t>
+  </si>
+  <si>
+    <t>EQ</t>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>根据职业房东评分体系，依据房源录入量，在线签约量等数据计算并更新房东V分</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.CalculateVScoreTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.CalculateVScoreTask"}</t>
+  </si>
+  <si>
+    <t>定时周期任务</t>
+  </si>
+  <si>
+    <t>每日05:00:00执行</t>
+  </si>
+  <si>
+    <t>报错原因：错误数据导致，根据报错日志，修复数据，重新执行一次即可</t>
+  </si>
+  <si>
+    <t>3.2.0</t>
+  </si>
+  <si>
+    <t>CalculateLandlordActiveScoreTask</t>
+  </si>
+  <si>
+    <t>计算房东活跃分定时器</t>
+  </si>
+  <si>
+    <t>根据房东30天内的房源录入量，在线签约量等纬度的数据，计算房东活跃度</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.CalculateLandlordActiveScoreTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.CalculateLandlordActiveScoreTask"}</t>
+  </si>
+  <si>
+    <t>每日04:00:00执行</t>
+  </si>
+  <si>
+    <t>尝试重复执行一次，若仍有错，需开发修复</t>
+  </si>
+  <si>
+    <t>5.0.3</t>
+  </si>
+  <si>
+    <t>SyncWebPagePVTask</t>
+  </si>
+  <si>
+    <t>社区文章浏览量数据由缓存同步到数据库</t>
+  </si>
+  <si>
+    <t>纪林强</t>
+  </si>
+  <si>
+    <t>官网每篇文章的浏览量是存储在缓存中，需每天定时将数据落地。</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.SyncWebPagePVTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.SyncWebPagePVTask"}</t>
+  </si>
+  <si>
+    <t>每4小时执行一次</t>
+  </si>
+  <si>
+    <t>报错原因：程序逻辑问题，需紧急修复，后重新执行一次即可</t>
+  </si>
+  <si>
+    <t>MemSycnTask</t>
+  </si>
+  <si>
+    <t>新旧缓存同步定时器</t>
+  </si>
+  <si>
+    <t>新旧缓存同步定时器。 第一期先对租客app的登录token做同步。</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.MemSycnTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.MemSycnTask"}</t>
+  </si>
+  <si>
+    <t>实时任务</t>
+  </si>
+  <si>
+    <t>按需只执行一次</t>
+  </si>
+  <si>
+    <t>3.2.0.7</t>
+  </si>
+  <si>
+    <t>HelpContentTask</t>
+  </si>
+  <si>
+    <t>同步帮助内容至搜索引擎</t>
+  </si>
+  <si>
+    <t>雷传盛</t>
+  </si>
+  <si>
+    <t>杨斌</t>
+  </si>
+  <si>
+    <t>使用中</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.HelpContentTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.HelpContentTask"}</t>
+  </si>
+  <si>
     <t>定时任务</t>
-  </si>
-  <si>
-    <t>用途</t>
-  </si>
-  <si>
-    <t>开发人</t>
-  </si>
-  <si>
-    <t>责任人</t>
-  </si>
-  <si>
-    <t>负责组别</t>
-  </si>
-  <si>
-    <t>使用与否</t>
-  </si>
-  <si>
-    <t>可否删除</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>新定时器名称</t>
-  </si>
-  <si>
-    <t>定时器类名称</t>
-  </si>
-  <si>
-    <t>定时器执行参数</t>
-  </si>
-  <si>
-    <t>任务类型</t>
-  </si>
-  <si>
-    <t>周期（计划任务表达式）</t>
-  </si>
-  <si>
-    <t>报错补救方案</t>
-  </si>
-  <si>
-    <t>上线版本</t>
-  </si>
-  <si>
-    <t>mogoroom-tasktracker</t>
-  </si>
-  <si>
-    <t>CalculateVScoreTask</t>
-  </si>
-  <si>
-    <t>计算房东V分</t>
-  </si>
-  <si>
-    <t>金刚</t>
-  </si>
-  <si>
-    <t>EQ</t>
-  </si>
-  <si>
-    <t>启用</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>根据职业房东评分体系，依据房源录入量，在线签约量等数据计算并更新房东V分</t>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.CalculateVScoreTask</t>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.CalculateVScoreTask"}</t>
-  </si>
-  <si>
-    <t>定时周期任务</t>
-  </si>
-  <si>
-    <t>每日05:00:00执行</t>
-  </si>
-  <si>
-    <t>报错原因：错误数据导致，根据报错日志，修复数据，重新执行一次即可</t>
-  </si>
-  <si>
-    <t>3.2.0</t>
-  </si>
-  <si>
-    <t>CalculateLandlordActiveScoreTask</t>
-  </si>
-  <si>
-    <t>计算房东活跃分定时器</t>
-  </si>
-  <si>
-    <t>根据房东30天内的房源录入量，在线签约量等纬度的数据，计算房东活跃度</t>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.CalculateLandlordActiveScoreTask</t>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.CalculateLandlordActiveScoreTask"}</t>
-  </si>
-  <si>
-    <t>每日04:00:00执行</t>
-  </si>
-  <si>
-    <t>尝试重复执行一次，若仍有错，需开发修复</t>
-  </si>
-  <si>
-    <t>5.0.3</t>
-  </si>
-  <si>
-    <t>SyncWebPagePVTask</t>
-  </si>
-  <si>
-    <t>社区文章浏览量数据由缓存同步到数据库</t>
-  </si>
-  <si>
-    <t>纪林强</t>
-  </si>
-  <si>
-    <t>官网每篇文章的浏览量是存储在缓存中，需每天定时将数据落地。</t>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.SyncWebPagePVTask</t>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.SyncWebPagePVTask"}</t>
-  </si>
-  <si>
-    <t>每4小时执行一次</t>
-  </si>
-  <si>
-    <t>报错原因：程序逻辑问题，需紧急修复，后重新执行一次即可</t>
-  </si>
-  <si>
-    <t>MemSycnTask</t>
-  </si>
-  <si>
-    <t>新旧缓存同步定时器</t>
-  </si>
-  <si>
-    <t>新旧缓存同步定时器。 第一期先对租客app的登录token做同步。</t>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.MemSycnTask</t>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.MemSycnTask"}</t>
-  </si>
-  <si>
-    <t>实时任务</t>
-  </si>
-  <si>
-    <t>按需只执行一次</t>
-  </si>
-  <si>
-    <t>3.2.0.7</t>
-  </si>
-  <si>
-    <t>HelpContentTask</t>
-  </si>
-  <si>
-    <t>同步帮助内容至搜索引擎</t>
-  </si>
-  <si>
-    <t>雷传盛</t>
-  </si>
-  <si>
-    <t>杨斌</t>
-  </si>
-  <si>
-    <t>使用中</t>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.HelpContentTask</t>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.HelpContentTask"}</t>
   </si>
   <si>
     <t>每天00:00:00执行</t>
@@ -560,18 +563,51 @@
   <si>
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.TelePromotionExtCreationTask"}</t>
   </si>
+  <si>
+    <t>尚景调用失败数据修复定时器</t>
+  </si>
+  <si>
+    <t>尚景调用采用异步方式，对于调用失败的请求，定期采集和逐条重试修复</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.TeleFixSungoinDataTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.TeleFixSungoinDataTask"}</t>
+  </si>
+  <si>
+    <t>每8小时执行一次</t>
+  </si>
+  <si>
+    <t>TeleSungoinDataAllSyncTask</t>
+  </si>
+  <si>
+    <t>尚景数据全量同步定时器</t>
+  </si>
+  <si>
+    <t>对比尚景和蘑菇两边的导航和坐席，已经导航和坐席的关联关系，不一致的予以修复</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.TeleSungoinDataAllSyncTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.TeleSungoinDataAllSyncTask"}</t>
+  </si>
+  <si>
+    <t>每3天执行一次</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,6 +622,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -608,6 +650,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -616,7 +666,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,7 +687,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,76 +703,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,15 +719,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,6 +780,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -779,7 +821,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,7 +905,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,73 +965,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,84 +995,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1080,6 +1122,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1095,11 +1152,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,26 +1182,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,8 +1200,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1163,17 +1217,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1185,10 +1242,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1197,139 +1254,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1343,7 +1400,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1365,6 +1422,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1374,13 +1434,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1392,7 +1452,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1419,7 +1479,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1460,7 +1520,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1469,7 +1529,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1485,7 +1545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1503,7 +1563,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1515,20 +1575,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="51" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="45" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="45" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="45" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1854,7 +1935,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1888,7 +1969,7 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -1909,1288 +1990,1405 @@
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="64" t="s">
+      <c r="Q1" s="72" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:17">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="27" customHeight="1" spans="1:17">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="43" t="s">
+      <c r="O3" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="Q3" s="39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="27" spans="1:17">
-      <c r="A4" s="13"/>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="45" t="s">
+      <c r="K4" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="N4" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="38" t="s">
+      <c r="Q4" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="27" spans="1:17">
-      <c r="A5" s="13"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="47" t="s">
+      <c r="M5" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="40" t="s">
+      <c r="O5" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="38" t="s">
+      <c r="P5" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="38" t="s">
+      <c r="Q5" s="39" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" hidden="1" customHeight="1" spans="1:17">
-      <c r="A6" s="13"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="52" t="s">
+      <c r="M6" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="53" t="s">
+      <c r="N6" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23" t="s">
+      <c r="O6" s="54" t="s">
         <v>63</v>
+      </c>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" hidden="1" customHeight="1" spans="1:17">
-      <c r="A7" s="13"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" hidden="1" customHeight="1" spans="1:17">
-      <c r="A8" s="13"/>
-      <c r="B8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="23" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="C8" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" s="52" t="s">
+      <c r="L8" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="N8" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="53" t="s">
+      <c r="M8" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23" t="s">
-        <v>63</v>
+      <c r="N8" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="14.25" hidden="1" customHeight="1" spans="1:17">
-      <c r="A9" s="13"/>
-      <c r="B9" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="23" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="C9" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="K9" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="M9" s="52" t="s">
+      <c r="L9" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="N9" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="O9" s="55" t="s">
+      <c r="M9" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23" t="s">
-        <v>63</v>
+      <c r="N9" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1" spans="1:17">
-      <c r="A10" s="13"/>
-      <c r="B10" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="28" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="C10" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="56" t="s">
+      <c r="J10" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="58" t="s">
+      <c r="L10" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="N10" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="O10" s="59" t="s">
+      <c r="M10" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23" t="s">
-        <v>63</v>
+      <c r="N10" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1" spans="1:17">
-      <c r="A11" s="13"/>
-      <c r="B11" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="28" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="C11" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="K11" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" s="57"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="O11" s="59" t="s">
+      <c r="L11" s="58"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23" t="s">
-        <v>63</v>
+      <c r="O11" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="27" hidden="1" customHeight="1" spans="1:17">
-      <c r="A12" s="13"/>
-      <c r="B12" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="28" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="C12" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="56" t="s">
+      <c r="J12" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="K12" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="L12" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="M12" s="58"/>
-      <c r="N12" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="O12" s="59" t="s">
+      <c r="L12" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23" t="s">
-        <v>63</v>
+      <c r="M12" s="59"/>
+      <c r="N12" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="O12" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:17">
-      <c r="A13" s="13"/>
-      <c r="B13" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="C13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="9" t="s">
+      <c r="J13" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="K13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="M13" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N13" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="P13" s="38" t="s">
+      <c r="O13" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="Q13" s="38" t="s">
+      <c r="Q13" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:17">
-      <c r="A14" s="13"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="N14" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="P14" s="38" t="s">
+      <c r="P14" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="Q14" s="38" t="s">
+      <c r="Q14" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" ht="27.75" customHeight="1" spans="1:17">
-      <c r="A15" s="13"/>
-      <c r="B15" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="C15" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="11" t="s">
+      <c r="E15" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="L15" s="9" t="s">
+      <c r="J15" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="K15" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="N15" s="39" t="s">
+      <c r="M15" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="N15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="O15" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="P15" s="41" t="s">
+      <c r="O15" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="P15" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="41" t="s">
+      <c r="Q15" s="62" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:17">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32" t="s">
+    <row r="16" spans="1:17">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="34" t="s">
+      <c r="E16" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="K16" s="33" t="s">
+      <c r="K16" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="33" t="s">
+      <c r="L16" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="M16" s="60" t="s">
+      <c r="M16" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="N16" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O16" s="61" t="s">
+      <c r="N16" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="P16" s="62" t="s">
+      <c r="O16" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" s="65" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="Q16" s="62" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:17">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="33" t="s">
+      <c r="G17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="L17" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="M17" s="60" t="s">
+      <c r="L17" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="N17" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O17" s="61" t="s">
+      <c r="M17" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="P17" s="62" t="s">
+      <c r="N17" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="O17" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q17" s="65" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="62" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:17">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="34" t="s">
+      <c r="A18" s="32"/>
+      <c r="B18" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="F18" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="K18" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="L18" s="33" t="s">
+      <c r="J18" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="M18" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="N18" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O18" s="61" t="s">
+      <c r="K18" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="P18" s="62" t="s">
+      <c r="M18" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="N18" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="O18" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="Q18" s="62" t="s">
-        <v>113</v>
+      <c r="P18" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q18" s="65" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="19" ht="27.75" spans="1:17">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="33" t="s">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="C19" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="L19" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="M19" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="N19" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="O19" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="P19" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q19" s="65" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="32"/>
+      <c r="B20" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="N20" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="P20" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q20" s="65" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:17">
+      <c r="A21" s="32"/>
+      <c r="B21" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" s="11" t="s">
+      <c r="F21" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="K19" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M19" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="N19" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O19" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="P19" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q19" s="62" t="s">
-        <v>113</v>
+      <c r="J21" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="M21" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="N21" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="O21" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="P21" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q21" s="65" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:17">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="11" t="s">
+    <row r="22" s="3" customFormat="1" spans="1:17">
+      <c r="A22" s="32"/>
+      <c r="B22" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I22" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="K20" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="L20" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="M20" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="N20" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O20" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="P20" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q20" s="62" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" s="3" customFormat="1" ht="14.25" spans="1:17">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="L21" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="M21" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="N21" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O21" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="P21" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q21" s="62" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" s="3" customFormat="1" ht="14.25" spans="1:17">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="33" t="s">
+      <c r="J22" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="K22" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="M22" s="60" t="s">
+      <c r="L22" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="N22" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O22" s="63" t="s">
+      <c r="M22" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="P22" s="62" t="s">
+      <c r="N22" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="O22" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="Q22" s="62" t="s">
+      <c r="P22" s="65" t="s">
         <v>136</v>
+      </c>
+      <c r="Q22" s="65" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1" ht="27.75" spans="1:17">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="M23" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="N23" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="P23" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q23" s="65" t="s">
         <v>137</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="K23" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="M23" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="N23" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O23" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="P23" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q23" s="62" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1" ht="27.75" spans="1:17">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="33" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="C24" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="33" t="s">
+      <c r="J24" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="K24" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="K24" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="L24" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="M24" s="60" t="s">
+      <c r="L24" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="N24" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O24" s="63" t="s">
+      <c r="M24" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="P24" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q24" s="62" t="s">
+      <c r="N24" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="O24" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="P24" s="65" t="s">
         <v>136</v>
+      </c>
+      <c r="Q24" s="65" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" ht="14.25" spans="1:17">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="33" t="s">
+      <c r="A25" s="32"/>
+      <c r="B25" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="C25" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="K25" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="L25" s="33" t="s">
+      <c r="J25" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="M25" s="60" t="s">
+      <c r="K25" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="N25" s="33" t="s">
+      <c r="M25" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="N25" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="O25" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="P25" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q25" s="65" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" s="3" customFormat="1" ht="14.25" spans="1:17">
+      <c r="A26" s="32"/>
+      <c r="B26" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="N26" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="O26" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q26" s="65"/>
+    </row>
+    <row r="27" s="3" customFormat="1" ht="14.25" spans="1:17">
+      <c r="A27" s="32"/>
+      <c r="B27" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="O25" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="P25" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q25" s="62" t="s">
-        <v>152</v>
-      </c>
+      <c r="C27" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="K27" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="M27" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="N27" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="O27" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="P27" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q27" s="65"/>
     </row>
-    <row r="26" ht="14.25" spans="1:17">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="E26" s="11" t="s">
+    <row r="28" s="3" customFormat="1" ht="27.75" spans="1:17">
+      <c r="A28" s="32"/>
+      <c r="B28" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F28" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G28" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H28" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I28" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="K26" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="L26" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="M26" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="N26" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O26" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q26" s="62"/>
+      <c r="J28" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="K28" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="M28" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="N28" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="O28" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="P28" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q28" s="69"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:17">
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XFC26">
+  <autoFilter ref="A1:XFC29">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="equal" val="史欣欣"/>
@@ -3198,7 +3396,7 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="A2:A29"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
